--- a/biology/Botanique/Shi_liao_bencao/Shi_liao_bencao.xlsx
+++ b/biology/Botanique/Shi_liao_bencao/Shi_liao_bencao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Matière médicale de la thérapie diététique
-Shi liao bencao 食療本草/食疗本草 « La Matière médicale de la thérapie diététique » de Meng Shen 孟詵, complétée par Zhang Ding 張鼎, a été rédigée dans les années 713-739, durant la dynastie Tang[1],[2].
+Shi liao bencao 食療本草/食疗本草 « La Matière médicale de la thérapie diététique » de Meng Shen 孟詵, complétée par Zhang Ding 張鼎, a été rédigée dans les années 713-739, durant la dynastie Tang,.
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>L'œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cet ouvrage est une pharmacopée en 3 volumes (juan), comportant 227 entrées (y compris les 89 entrées additionnelles de Zhang Ding), portant sur 260 types de produits thérapeutiques.
 L’ouvrage original de Meng Shen était intitulé Bu yang fang 補養方 « Recettes de supplémentation et de nutrition ».
 Le Shi liao bencao est connu par de larges fragments bien préservés trouvés dans les grottes de Dunhuang, à partir desquels on peut déterminer la structure basique du livre. Les additions de Zhang Ding sont clairement indiquées dans le texte qui a survécu.
 L’ouvrage rend compte des usages doubles qui peuvent être fait de différentes denrées alimentaires comme aliment et comme médicament. La nature de la substance (wen 温 tiède, ping 平 équilibré/calme, han 寒 chaud, leng 冷 froid) est précisée.
-Il discute aussi les effets de ces matières médicales, les interdictions et les recettes associées. Il décrit aussi leur apparence, leur aire de production, et les méthodes d’élaboration[1].
+Il discute aussi les effets de ces matières médicales, les interdictions et les recettes associées. Il décrit aussi leur apparence, leur aire de production, et les méthodes d’élaboration.
 Le Shi liao bencao a été cité de nombreuses fois par les ouvrages médicaux des Tang 唐 et des Song 宋 en particulier par le Jia you bencao 嘉祐本草 écrit par Zhang Yuxi 掌禹錫 et al., et le Zheng lei bencao 證類本草 « Materia medica vérifiée et catégorisée » de Tang Shenwei 唐慎微 (c. 1056-1093).
-Il a été cité aussi par Li Shizhen dans Bencao gangmu, 152 fois en citant Shi liao bencao ou diverses abréviations et 600 fois en citant le nom de l’auteur Meng Shen ou diverses abréviations[1].
+Il a été cité aussi par Li Shizhen dans Bencao gangmu, 152 fois en citant Shi liao bencao ou diverses abréviations et 600 fois en citant le nom de l’auteur Meng Shen ou diverses abréviations.
 Exemples d’entrée
 L’asperge de Cochinchine (Tiānméndōng, Asparagus cochinchinensis), originaire de Cochinchine, Chine, Corée, Japon est utilisée à la fois comme aliment et comme médicament. Sur le plan alimentaire, elle est préparée de diverses façons : bouillie, cuite à la vapeur, ou ajoutée à des soupes et des ragoûts.
 Selon Shi liao bencao:
@@ -556,14 +570,16 @@
           <t>L’auteur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Meng Shen 孟诜 (621-713) est originaire de Ruzhou 汝州 (maintenant Linru 臨汝 dans la province du Henan 河南). Fonctionnaire de la dynastie Tang, il écrivit plusieurs ouvrages dont une pharmacopée. Dès son enfance, il s’intéressait aux drogues thérapeutiques. En 674, il devint le disciple du médecin célèbre Sun Simiao 孙思邈 et étudia le yin et le yang et la médecine. Il fut nommé préfet (cishi 刺史) de Tongzhou 同州, si bien qu’il fut dénommé Meng Tongzhou 孟同州.
 À plus de 80 ans d’âge, il se retira dans les monts Yiyang 伊陽 pour étudier la médecine et se consacrer à son développement personnel.
 Il est biographie dans Jiu Tang shu 旧唐书 / 舊唐书 « Ancien Livre des Tang ». Meng a écrit deux ouvrages
 Bi xiao fang 必效方 en 3 juan, perdus
 Bu yang fang 補養方 « Recettes pour la supplémentation et la nourriture »
-C’est ce dernier ouvrage qui fut corrigé et étendu par Zhang Ding pour donner le Shi liao bencao[1].
+C’est ce dernier ouvrage qui fut corrigé et étendu par Zhang Ding pour donner le Shi liao bencao.
 </t>
         </is>
       </c>
